--- a/WorkCycle.xlsx
+++ b/WorkCycle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8652" tabRatio="679" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8652" tabRatio="679" activeTab="5"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="정건제" sheetId="1" r:id="rId4"/>
@@ -27,93 +27,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="29">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="32">
+  <x:si>
+    <x:t>1소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소 4분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회차 종료여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소 3분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소 3분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3회차</x:t>
+  </x:si>
   <x:si>
     <x:t>9회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>1회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
   </x:si>
   <x:si>
     <x:t>8회차</x:t>
   </x:si>
   <x:si>
-    <x:t>2회차</x:t>
+    <x:t>4소대 4분대</x:t>
   </x:si>
   <x:si>
-    <x:t>7회차</x:t>
+    <x:t>2소대 2분대</x:t>
   </x:si>
   <x:si>
-    <x:t>1회차</x:t>
+    <x:t>2소대 3분대</x:t>
   </x:si>
   <x:si>
-    <x:t/>
+    <x:t>2소대 1분대</x:t>
   </x:si>
   <x:si>
-    <x:t>3회차</x:t>
+    <x:t>4소대 1분대</x:t>
   </x:si>
   <x:si>
-    <x:t>6회차</x:t>
+    <x:t>4소대 2분대</x:t>
   </x:si>
   <x:si>
-    <x:t>o</x:t>
+    <x:t>4소대 3분대</x:t>
   </x:si>
   <x:si>
-    <x:t>5회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소 4분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소 1분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소 3분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소 2분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소 3분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소 2분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소 1분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소 1분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회차 종료여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소 4분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소 3분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소 3분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소 4분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소 4분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소 2분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소 1분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소 2분</x:t>
+    <x:t>1소대 1분대</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -854,7 +863,7 @@
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H22" activeCellId="0" sqref="H22:H22"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -864,39 +873,39 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B2" s="1" t="str">
         <x:f>'정건제(관리)'!B2&amp;""</x:f>
@@ -941,7 +950,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="1" t="str">
         <x:f>'정건제(관리)'!B3&amp;""</x:f>
@@ -986,7 +995,7 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="1" t="str">
         <x:f>'정건제(관리)'!B4&amp;""</x:f>
@@ -1031,7 +1040,7 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="1" t="str">
         <x:f>'정건제(관리)'!B5&amp;""</x:f>
@@ -1076,7 +1085,7 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B6" s="1" t="str">
         <x:f>'정건제(관리)'!B6&amp;""</x:f>
@@ -1121,7 +1130,7 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="1" t="str">
         <x:f>'정건제(관리)'!B7&amp;""</x:f>
@@ -1166,7 +1175,7 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B8" s="1" t="str">
         <x:f>'정건제(관리)'!B8&amp;""</x:f>
@@ -1211,7 +1220,7 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B9" s="1" t="str">
         <x:f>'정건제(관리)'!B9&amp;""</x:f>
@@ -1256,7 +1265,7 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B10" s="1" t="str">
         <x:f>'정건제(관리)'!B10&amp;""</x:f>
@@ -1301,7 +1310,7 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B11" s="1" t="str">
         <x:f>'정건제(관리)'!B11&amp;""</x:f>
@@ -1346,7 +1355,7 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B12" s="1" t="str">
         <x:f>'정건제(관리)'!B12&amp;""</x:f>
@@ -1391,7 +1400,7 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="1" t="str">
         <x:f>'정건제(관리)'!B13&amp;""</x:f>
@@ -1436,7 +1445,7 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B14" s="1" t="str">
         <x:f>'정건제(관리)'!B14&amp;""</x:f>
@@ -1481,7 +1490,7 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B15" s="1" t="str">
         <x:f>'정건제(관리)'!B15&amp;""</x:f>
@@ -1526,7 +1535,7 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B16" s="1" t="str">
         <x:f>'정건제(관리)'!B16&amp;""</x:f>
@@ -1625,8 +1634,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:K18"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C17" activeCellId="0" sqref="B17:C17"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -1636,145 +1645,145 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
@@ -1784,7 +1793,7 @@
     </x:row>
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B18" s="1" t="str">
         <x:f>IF(ISBLANK(B17),""&amp;"","o")</x:f>
@@ -1839,7 +1848,7 @@
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -1849,109 +1858,109 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
@@ -1971,7 +1980,7 @@
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A18" activeCellId="0" sqref="A18:M18"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -1981,34 +1990,34 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
@@ -2058,7 +2067,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B3" s="1" t="str">
         <x:f>'역건제(관리)'!B3&amp;""</x:f>
@@ -2103,7 +2112,7 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B4" s="1" t="str">
         <x:f>'역건제(관리)'!B4&amp;""</x:f>
@@ -2148,7 +2157,7 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B5" s="1" t="str">
         <x:f>'역건제(관리)'!B5&amp;""</x:f>
@@ -2193,7 +2202,7 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="1" t="str">
         <x:f>'역건제(관리)'!B6&amp;""</x:f>
@@ -2238,7 +2247,7 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B7" s="1" t="str">
         <x:f>'역건제(관리)'!B7&amp;""</x:f>
@@ -2283,7 +2292,7 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="1" t="str">
         <x:f>'역건제(관리)'!B8&amp;""</x:f>
@@ -2328,7 +2337,7 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="1" t="str">
         <x:f>'역건제(관리)'!B9&amp;""</x:f>
@@ -2373,7 +2382,7 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B10" s="1" t="str">
         <x:f>'역건제(관리)'!B10&amp;""</x:f>
@@ -2418,7 +2427,7 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B11" s="1" t="str">
         <x:f>'역건제(관리)'!B11&amp;""</x:f>
@@ -2463,7 +2472,7 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B12" s="1" t="str">
         <x:f>'역건제(관리)'!B12&amp;""</x:f>
@@ -2508,7 +2517,7 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B13" s="1" t="str">
         <x:f>'역건제(관리)'!B13&amp;""</x:f>
@@ -2553,7 +2562,7 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B14" s="1" t="str">
         <x:f>'역건제(관리)'!B14&amp;""</x:f>
@@ -2598,7 +2607,7 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="1" t="str">
         <x:f>'역건제(관리)'!B15&amp;""</x:f>
@@ -2643,7 +2652,7 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B16" s="1" t="str">
         <x:f>'역건제(관리)'!B16&amp;""</x:f>
@@ -2688,7 +2697,7 @@
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B17" s="1" t="str">
         <x:f>'역건제(관리)'!B17&amp;""</x:f>
@@ -2732,8 +2741,8 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:sortState columnSort="0" caseSensitive="0" ref="A1:A18">
-    <x:sortCondition descending="1" sortBy="value" ref="A1:A18"/>
+  <x:sortState columnSort="0" caseSensitive="0" ref="A1:A17">
+    <x:sortCondition descending="1" sortBy="value" ref="A1:A17"/>
   </x:sortState>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2746,7 +2755,7 @@
   <x:dimension ref="A1:K18"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D24" activeCellId="0" sqref="D24:D24"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -2756,34 +2765,34 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
@@ -2793,82 +2802,82 @@
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B18" s="1" t="str">
         <x:f>IF(ISBLANK(B17),""&amp;"","o")</x:f>
@@ -2925,8 +2934,8 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A18" activeCellId="0" sqref="A18:A18"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K16" activeCellId="0" sqref="K16:K16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -2936,34 +2945,34 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
@@ -2973,77 +2982,77 @@
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3058,7 +3067,7 @@
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C18" activeCellId="0" sqref="C18:C18"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -3068,39 +3077,39 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="3" t="str">
-        <x:f>'임의순서(관리)'!A2</x:f>
+        <x:f>IF(ISBLANK('임의순서(관리)'!A2),""&amp;"",'임의순서(관리)'!A2)</x:f>
         <x:v>1소 3분</x:v>
       </x:c>
       <x:c r="B2" s="1" t="str">
@@ -3146,7 +3155,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="3" t="str">
-        <x:f>'임의순서(관리)'!A3</x:f>
+        <x:f>IF(ISBLANK('임의순서(관리)'!A3),""&amp;"",'임의순서(관리)'!A3)</x:f>
         <x:v>2소 4분</x:v>
       </x:c>
       <x:c r="B3" s="1" t="str">
@@ -3191,9 +3200,9 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
-      <x:c r="A4" s="3">
-        <x:f>'임의순서(관리)'!A4</x:f>
-        <x:v>0</x:v>
+      <x:c r="A4" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A4),""&amp;"",'임의순서(관리)'!A4)</x:f>
+        <x:v>4소 3분</x:v>
       </x:c>
       <x:c r="B4" s="1" t="str">
         <x:f>'임의순서(관리)'!B4&amp;""</x:f>
@@ -3237,9 +3246,9 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
-      <x:c r="A5" s="3">
-        <x:f>'임의순서(관리)'!A5</x:f>
-        <x:v>0</x:v>
+      <x:c r="A5" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A5),""&amp;"",'임의순서(관리)'!A5)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B5" s="1" t="str">
         <x:f>'임의순서(관리)'!B5&amp;""</x:f>
@@ -3283,9 +3292,9 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
-      <x:c r="A6" s="3">
-        <x:f>'임의순서(관리)'!A6</x:f>
-        <x:v>0</x:v>
+      <x:c r="A6" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A6),""&amp;"",'임의순서(관리)'!A6)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B6" s="1" t="str">
         <x:f>'임의순서(관리)'!B6&amp;""</x:f>
@@ -3329,9 +3338,9 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11">
-      <x:c r="A7" s="3">
-        <x:f>'임의순서(관리)'!A7</x:f>
-        <x:v>0</x:v>
+      <x:c r="A7" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A7),""&amp;"",'임의순서(관리)'!A7)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B7" s="1" t="str">
         <x:f>'임의순서(관리)'!B7&amp;""</x:f>
@@ -3375,9 +3384,9 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
-      <x:c r="A8" s="3">
-        <x:f>'임의순서(관리)'!A8</x:f>
-        <x:v>0</x:v>
+      <x:c r="A8" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A8),""&amp;"",'임의순서(관리)'!A8)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B8" s="1" t="str">
         <x:f>'임의순서(관리)'!B8&amp;""</x:f>
@@ -3421,9 +3430,9 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
-      <x:c r="A9" s="3">
-        <x:f>'임의순서(관리)'!A9</x:f>
-        <x:v>0</x:v>
+      <x:c r="A9" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A9),""&amp;"",'임의순서(관리)'!A9)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B9" s="1" t="str">
         <x:f>'임의순서(관리)'!B9&amp;""</x:f>
@@ -3467,9 +3476,9 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="1:11">
-      <x:c r="A10" s="3">
-        <x:f>'임의순서(관리)'!A10</x:f>
-        <x:v>0</x:v>
+      <x:c r="A10" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A10),""&amp;"",'임의순서(관리)'!A10)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B10" s="1" t="str">
         <x:f>'임의순서(관리)'!B10&amp;""</x:f>
@@ -3513,9 +3522,9 @@
       </x:c>
     </x:row>
     <x:row r="11" spans="1:11">
-      <x:c r="A11" s="3">
-        <x:f>'임의순서(관리)'!A11</x:f>
-        <x:v>0</x:v>
+      <x:c r="A11" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A11),""&amp;"",'임의순서(관리)'!A11)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B11" s="1" t="str">
         <x:f>'임의순서(관리)'!B11&amp;""</x:f>
@@ -3559,9 +3568,9 @@
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
-      <x:c r="A12" s="3">
-        <x:f>'임의순서(관리)'!A12</x:f>
-        <x:v>0</x:v>
+      <x:c r="A12" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A12),""&amp;"",'임의순서(관리)'!A12)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B12" s="1" t="str">
         <x:f>'임의순서(관리)'!B12&amp;""</x:f>
@@ -3605,9 +3614,9 @@
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11">
-      <x:c r="A13" s="3">
-        <x:f>'임의순서(관리)'!A13</x:f>
-        <x:v>0</x:v>
+      <x:c r="A13" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A13),""&amp;"",'임의순서(관리)'!A13)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B13" s="1" t="str">
         <x:f>'임의순서(관리)'!B13&amp;""</x:f>
@@ -3651,9 +3660,9 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="1:11">
-      <x:c r="A14" s="3">
-        <x:f>'임의순서(관리)'!A14</x:f>
-        <x:v>0</x:v>
+      <x:c r="A14" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A14),""&amp;"",'임의순서(관리)'!A14)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B14" s="1" t="str">
         <x:f>'임의순서(관리)'!B14&amp;""</x:f>
@@ -3697,9 +3706,9 @@
       </x:c>
     </x:row>
     <x:row r="15" spans="1:11">
-      <x:c r="A15" s="3">
-        <x:f>'임의순서(관리)'!A15</x:f>
-        <x:v>0</x:v>
+      <x:c r="A15" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A15),""&amp;"",'임의순서(관리)'!A15)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B15" s="1" t="str">
         <x:f>'임의순서(관리)'!B15&amp;""</x:f>
@@ -3743,9 +3752,9 @@
       </x:c>
     </x:row>
     <x:row r="16" spans="1:11">
-      <x:c r="A16" s="3">
-        <x:f>'임의순서(관리)'!A16</x:f>
-        <x:v>0</x:v>
+      <x:c r="A16" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A16),""&amp;"",'임의순서(관리)'!A16)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B16" s="1" t="str">
         <x:f>'임의순서(관리)'!B16&amp;""</x:f>
@@ -3789,9 +3798,9 @@
       </x:c>
     </x:row>
     <x:row r="17" spans="1:11">
-      <x:c r="A17" s="3">
-        <x:f>'임의순서(관리)'!A17</x:f>
-        <x:v>0</x:v>
+      <x:c r="A17" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A17),""&amp;"",'임의순서(관리)'!A17)</x:f>
+        <x:v/>
       </x:c>
       <x:c r="B17" s="1" t="str">
         <x:f>'임의순서(관리)'!B17&amp;""</x:f>
@@ -3846,7 +3855,7 @@
   <x:dimension ref="A1:K18"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D25" activeCellId="0" sqref="D25:D25"/>
+      <x:selection activeCell="E12" activeCellId="0" sqref="E12:E12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -3856,49 +3865,54 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="3" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B18" s="1" t="str">
         <x:f>IF(ISBLANK(B17),""&amp;"","o")</x:f>
@@ -3963,130 +3977,130 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="3" t="str">
-        <x:f>'임의순서(관리)'!A2</x:f>
+        <x:f>IF(ISBLANK('임의순서(관리)'!A2),""&amp;"",'임의순서(관리)'!A2)</x:f>
         <x:v>1소 3분</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="3" t="str">
-        <x:f>'임의순서(관리)'!A3</x:f>
+        <x:f>IF(ISBLANK('임의순서(관리)'!A3),""&amp;"",'임의순서(관리)'!A3)</x:f>
         <x:v>2소 4분</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="3">
-        <x:f>'임의순서(관리)'!A4</x:f>
-        <x:v>0</x:v>
+      <x:c r="A4" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A4),""&amp;"",'임의순서(관리)'!A4)</x:f>
+        <x:v>4소 3분</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="3">
-        <x:f>'임의순서(관리)'!A5</x:f>
-        <x:v>0</x:v>
+      <x:c r="A5" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A5),""&amp;"",'임의순서(관리)'!A5)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="3">
-        <x:f>'임의순서(관리)'!A6</x:f>
-        <x:v>0</x:v>
+      <x:c r="A6" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A6),""&amp;"",'임의순서(관리)'!A6)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3">
-        <x:f>'임의순서(관리)'!A7</x:f>
-        <x:v>0</x:v>
+      <x:c r="A7" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A7),""&amp;"",'임의순서(관리)'!A7)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3">
-        <x:f>'임의순서(관리)'!A8</x:f>
-        <x:v>0</x:v>
+      <x:c r="A8" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A8),""&amp;"",'임의순서(관리)'!A8)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
-      <x:c r="A9" s="3">
-        <x:f>'임의순서(관리)'!A9</x:f>
-        <x:v>0</x:v>
+      <x:c r="A9" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A9),""&amp;"",'임의순서(관리)'!A9)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
-      <x:c r="A10" s="3">
-        <x:f>'임의순서(관리)'!A10</x:f>
-        <x:v>0</x:v>
+      <x:c r="A10" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A10),""&amp;"",'임의순서(관리)'!A10)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
-      <x:c r="A11" s="3">
-        <x:f>'임의순서(관리)'!A11</x:f>
-        <x:v>0</x:v>
+      <x:c r="A11" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A11),""&amp;"",'임의순서(관리)'!A11)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
-      <x:c r="A12" s="3">
-        <x:f>'임의순서(관리)'!A12</x:f>
-        <x:v>0</x:v>
+      <x:c r="A12" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A12),""&amp;"",'임의순서(관리)'!A12)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
-      <x:c r="A13" s="3">
-        <x:f>'임의순서(관리)'!A13</x:f>
-        <x:v>0</x:v>
+      <x:c r="A13" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A13),""&amp;"",'임의순서(관리)'!A13)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
-      <x:c r="A14" s="3">
-        <x:f>'임의순서(관리)'!A14</x:f>
-        <x:v>0</x:v>
+      <x:c r="A14" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A14),""&amp;"",'임의순서(관리)'!A14)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
-      <x:c r="A15" s="3">
-        <x:f>'임의순서(관리)'!A15</x:f>
-        <x:v>0</x:v>
+      <x:c r="A15" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A15),""&amp;"",'임의순서(관리)'!A15)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
-      <x:c r="A16" s="3">
-        <x:f>'임의순서(관리)'!A16</x:f>
-        <x:v>0</x:v>
+      <x:c r="A16" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A16),""&amp;"",'임의순서(관리)'!A16)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
-      <x:c r="A17" s="3">
-        <x:f>'임의순서(관리)'!A17</x:f>
-        <x:v>0</x:v>
+      <x:c r="A17" s="3" t="str">
+        <x:f>IF(ISBLANK('임의순서(관리)'!A17),""&amp;"",'임의순서(관리)'!A17)</x:f>
+        <x:v/>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/WorkCycle.xlsx
+++ b/WorkCycle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="6996" tabRatio="859" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="6996" tabRatio="859" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="정건제" sheetId="1" r:id="rId4"/>
@@ -26,116 +26,116 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="37">
   <x:si>
+    <x:t>test5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2</x:t>
+  </x:si>
+  <x:si>
     <x:t>test1</x:t>
   </x:si>
   <x:si>
+    <x:t>면제권</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회차 종료여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>면제</x:t>
+  </x:si>
+  <x:si>
     <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>1소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회차 종료여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>면제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>면제권</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">회차 종료여부
 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test4</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -876,7 +876,7 @@
   <x:dimension ref="A1:K18"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C2" activeCellId="0" sqref="C2:C2"/>
+      <x:selection activeCell="D4" activeCellId="0" sqref="D4:D4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -887,42 +887,42 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C2" s="1"/>
       <x:c r="D2" s="1"/>
@@ -936,13 +936,13 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D3" s="1"/>
       <x:c r="E3" s="1"/>
@@ -955,13 +955,13 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D4" s="1"/>
       <x:c r="E4" s="1"/>
@@ -974,13 +974,13 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D5" s="1"/>
       <x:c r="E5" s="1"/>
@@ -993,13 +993,13 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D6" s="1"/>
       <x:c r="E6" s="1"/>
@@ -1012,10 +1012,10 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C7" s="1"/>
       <x:c r="D7" s="1"/>
@@ -1029,10 +1029,10 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C8" s="1"/>
       <x:c r="D8" s="1"/>
@@ -1046,10 +1046,10 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="1"/>
       <x:c r="D9" s="1"/>
@@ -1063,10 +1063,10 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C10" s="1"/>
       <x:c r="D10" s="1"/>
@@ -1080,10 +1080,10 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C11" s="1"/>
       <x:c r="D11" s="1"/>
@@ -1097,13 +1097,13 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D12" s="1"/>
       <x:c r="E12" s="1"/>
@@ -1116,7 +1116,7 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="1"/>
       <x:c r="D13" s="1"/>
@@ -1130,7 +1130,7 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C14" s="1"/>
       <x:c r="D14" s="1"/>
@@ -1144,7 +1144,7 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1"/>
       <x:c r="D15" s="1"/>
@@ -1158,7 +1158,7 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C16" s="1"/>
       <x:c r="D16" s="1"/>
@@ -1172,7 +1172,7 @@
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C17" s="1"/>
       <x:c r="D17" s="1"/>
@@ -1186,7 +1186,7 @@
     </x:row>
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="1"/>
       <x:c r="D18" s="1"/>
@@ -1209,8 +1209,8 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D2" activeCellId="0" sqref="D2:D2"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D4" activeCellId="0" sqref="D4:D4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -1220,129 +1220,129 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1367,48 +1367,48 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E2" s="1"/>
       <x:c r="F2" s="1"/>
@@ -1420,19 +1420,19 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F3" s="1"/>
       <x:c r="G3" s="1"/>
@@ -1443,16 +1443,16 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E4" s="1"/>
       <x:c r="F4" s="1"/>
@@ -1464,19 +1464,19 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F5" s="1"/>
       <x:c r="G5" s="1"/>
@@ -1487,16 +1487,16 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E6" s="1"/>
       <x:c r="F6" s="1"/>
@@ -1508,19 +1508,19 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F7" s="1"/>
       <x:c r="G7" s="1"/>
@@ -1531,13 +1531,13 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D8" s="1"/>
       <x:c r="E8" s="1"/>
@@ -1550,19 +1550,19 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F9" s="1"/>
       <x:c r="G9" s="1"/>
@@ -1573,13 +1573,13 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D10" s="1"/>
       <x:c r="E10" s="1"/>
@@ -1592,16 +1592,16 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="1"/>
       <x:c r="F11" s="1"/>
@@ -1613,19 +1613,19 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F12" s="1"/>
       <x:c r="G12" s="1"/>
@@ -1636,19 +1636,19 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F13" s="1"/>
       <x:c r="G13" s="1"/>
@@ -1659,19 +1659,19 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F14" s="1"/>
       <x:c r="G14" s="1"/>
@@ -1682,13 +1682,13 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D15" s="1"/>
       <x:c r="E15" s="1"/>
@@ -1701,19 +1701,19 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F16" s="1"/>
       <x:c r="G16" s="1"/>
@@ -1724,16 +1724,16 @@
     </x:row>
     <x:row r="17" spans="1:11" ht="15.6" customHeight="1">
       <x:c r="A17" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E17" s="1"/>
       <x:c r="F17" s="1"/>
@@ -1745,13 +1745,13 @@
     </x:row>
     <x:row r="18" spans="1:3" ht="15" customHeight="1">
       <x:c r="A18" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1765,7 +1765,7 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="F17" activeCellId="0" sqref="F17:F17"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1776,129 +1776,129 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1923,42 +1923,42 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C2" s="1"/>
       <x:c r="D2" s="1"/>
@@ -1972,10 +1972,10 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C3" s="1"/>
       <x:c r="D3" s="1"/>
@@ -1989,10 +1989,10 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C4" s="1"/>
       <x:c r="D4" s="1"/>
@@ -2006,7 +2006,7 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B5" s="1"/>
       <x:c r="C5" s="1"/>
@@ -2165,7 +2165,7 @@
     </x:row>
     <x:row r="18" spans="1:1" ht="27.100000000000001" customHeight="1">
       <x:c r="A18" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2190,34 +2190,34 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">

--- a/WorkCycle.xlsx
+++ b/WorkCycle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="6996" tabRatio="859" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="6996" tabRatio="859" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="정건제" sheetId="1" r:id="rId4"/>
@@ -24,114 +24,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="37">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="38">
+  <x:si>
+    <x:t>면제권</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>2회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 2분대</x:t>
+  </x:si>
   <x:si>
     <x:t>test5</x:t>
   </x:si>
   <x:si>
+    <x:t>3소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3</x:t>
+  </x:si>
+  <x:si>
     <x:t>test4</x:t>
   </x:si>
   <x:si>
-    <x:t>test3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2</x:t>
+    <x:t>회차 종료여부</x:t>
   </x:si>
   <x:si>
     <x:t>test1</x:t>
   </x:si>
   <x:si>
-    <x:t>면제권</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회차 종료여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>면제</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>main</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">회차 종료여부
@@ -887,42 +890,42 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G1" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I1" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="J1" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="K1" s="1" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="1"/>
       <x:c r="D2" s="1"/>
@@ -936,13 +939,13 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="1"/>
       <x:c r="E3" s="1"/>
@@ -955,13 +958,13 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="1"/>
       <x:c r="E4" s="1"/>
@@ -974,13 +977,13 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="1"/>
       <x:c r="E5" s="1"/>
@@ -993,13 +996,13 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="1"/>
       <x:c r="E6" s="1"/>
@@ -1012,10 +1015,10 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="1"/>
       <x:c r="D7" s="1"/>
@@ -1029,10 +1032,10 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="1"/>
       <x:c r="D8" s="1"/>
@@ -1046,10 +1049,10 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1"/>
       <x:c r="D9" s="1"/>
@@ -1063,10 +1066,10 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="1"/>
       <x:c r="D10" s="1"/>
@@ -1080,10 +1083,10 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="1"/>
       <x:c r="D11" s="1"/>
@@ -1097,13 +1100,13 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="1"/>
       <x:c r="E12" s="1"/>
@@ -1116,7 +1119,7 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C13" s="1"/>
       <x:c r="D13" s="1"/>
@@ -1130,7 +1133,7 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C14" s="1"/>
       <x:c r="D14" s="1"/>
@@ -1144,7 +1147,7 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C15" s="1"/>
       <x:c r="D15" s="1"/>
@@ -1158,7 +1161,7 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="1"/>
       <x:c r="D16" s="1"/>
@@ -1172,7 +1175,7 @@
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C17" s="1"/>
       <x:c r="D17" s="1"/>
@@ -1186,7 +1189,7 @@
     </x:row>
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C18" s="1"/>
       <x:c r="D18" s="1"/>
@@ -1209,7 +1212,7 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="D4" activeCellId="0" sqref="D4:D4"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1220,129 +1223,129 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G1" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I1" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="J1" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="K1" s="1" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1356,8 +1359,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:K18"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D10" activeCellId="0" sqref="D10:D10"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E6" activeCellId="0" sqref="E6:E6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -1365,50 +1368,53 @@
     <x:col min="1" max="1" width="12.6015625" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="2:11">
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G1" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I1" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="J1" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="K1" s="1" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="1"/>
       <x:c r="F2" s="1"/>
@@ -1420,21 +1426,23 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F3" s="1"/>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="G3" s="1"/>
       <x:c r="H3" s="1"/>
       <x:c r="I3" s="1"/>
@@ -1443,16 +1451,16 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="1"/>
       <x:c r="F4" s="1"/>
@@ -1464,19 +1472,19 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="1"/>
       <x:c r="G5" s="1"/>
@@ -1487,16 +1495,16 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="1"/>
       <x:c r="F6" s="1"/>
@@ -1508,19 +1516,19 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F7" s="1"/>
       <x:c r="G7" s="1"/>
@@ -1531,15 +1539,17 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D8" s="1"/>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="E8" s="1"/>
       <x:c r="F8" s="1"/>
       <x:c r="G8" s="1"/>
@@ -1550,19 +1560,19 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="1"/>
       <x:c r="G9" s="1"/>
@@ -1573,13 +1583,13 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D10" s="1"/>
       <x:c r="E10" s="1"/>
@@ -1592,16 +1602,16 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="1"/>
       <x:c r="F11" s="1"/>
@@ -1613,19 +1623,19 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F12" s="1"/>
       <x:c r="G12" s="1"/>
@@ -1636,19 +1646,19 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="1"/>
       <x:c r="G13" s="1"/>
@@ -1659,19 +1669,19 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F14" s="1"/>
       <x:c r="G14" s="1"/>
@@ -1682,13 +1692,13 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D15" s="1"/>
       <x:c r="E15" s="1"/>
@@ -1701,19 +1711,19 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="1"/>
       <x:c r="G16" s="1"/>
@@ -1724,16 +1734,16 @@
     </x:row>
     <x:row r="17" spans="1:11" ht="15.6" customHeight="1">
       <x:c r="A17" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="1"/>
       <x:c r="F17" s="1"/>
@@ -1743,15 +1753,18 @@
       <x:c r="J17" s="1"/>
       <x:c r="K17" s="1"/>
     </x:row>
-    <x:row r="18" spans="1:3" ht="15" customHeight="1">
+    <x:row r="18" spans="1:4" ht="15" customHeight="1">
       <x:c r="A18" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1766,7 +1779,7 @@
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F17" activeCellId="0" sqref="F17:F17"/>
+      <x:selection activeCell="E6" activeCellId="0" sqref="E6:E6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -1776,129 +1789,135 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G1" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I1" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="J1" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="K1" s="1" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:1">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
       <x:c r="A3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
         <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1923,42 +1942,42 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G1" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I1" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="J1" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="K1" s="1" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="1"/>
       <x:c r="D2" s="1"/>
@@ -1972,10 +1991,10 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1"/>
       <x:c r="D3" s="1"/>
@@ -1989,10 +2008,10 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="1"/>
       <x:c r="D4" s="1"/>
@@ -2006,7 +2025,7 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B5" s="1"/>
       <x:c r="C5" s="1"/>
@@ -2165,7 +2184,7 @@
     </x:row>
     <x:row r="18" spans="1:1" ht="27.100000000000001" customHeight="1">
       <x:c r="A18" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2190,34 +2209,34 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G1" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I1" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="J1" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="K1" s="1" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">

--- a/WorkCycle.xlsx
+++ b/WorkCycle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="6996" tabRatio="859" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="6996" tabRatio="859"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="정건제" sheetId="1" r:id="rId4"/>
@@ -24,77 +24,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="38">
-  <x:si>
-    <x:t>o</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="37">
+  <x:si>
+    <x:t>3소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3소대 2분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 3분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1소대 2분대</x:t>
   </x:si>
   <x:si>
     <x:t>3소대 3분대</x:t>
   </x:si>
   <x:si>
+    <x:t>1소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 4분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4소대 2분대</x:t>
+  </x:si>
+  <x:si>
     <x:t>4소대 3분대</x:t>
   </x:si>
   <x:si>
-    <x:t>4소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 1분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4소대 2분대</x:t>
+    <x:t>1소대 1분대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2소대 4분대</x:t>
   </x:si>
   <x:si>
     <x:t>10회차</x:t>
   </x:si>
   <x:si>
-    <x:t>test1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 3분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1소대 2분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2소대 4분대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test4</x:t>
-  </x:si>
-  <x:si>
     <x:t>test5</x:t>
   </x:si>
   <x:si>
-    <x:t>1소대 1분대</x:t>
-  </x:si>
-  <x:si>
     <x:t>test3</x:t>
   </x:si>
   <x:si>
@@ -102,43 +99,43 @@
   </x:si>
   <x:si>
     <x:t>main</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가짜면제권</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">회차 종료여부
 </x:t>
   </x:si>
   <x:si>
+    <x:t>1회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9회차</x:t>
+  </x:si>
+  <x:si>
     <x:t>2회차</x:t>
   </x:si>
   <x:si>
-    <x:t>1회차</x:t>
+    <x:t>8회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5회차</x:t>
   </x:si>
   <x:si>
     <x:t>7회차</x:t>
   </x:si>
   <x:si>
-    <x:t>9회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8회차</x:t>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -209,7 +206,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -221,6 +218,9 @@
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -878,8 +878,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:K18"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D4" activeCellId="0" sqref="D4:D4"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D2" activeCellId="0" sqref="D2:D2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -890,42 +890,42 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C2" s="1"/>
       <x:c r="D2" s="1"/>
@@ -939,13 +939,13 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D3" s="1"/>
       <x:c r="E3" s="1"/>
@@ -958,13 +958,13 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D4" s="1"/>
       <x:c r="E4" s="1"/>
@@ -977,13 +977,13 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D5" s="1"/>
       <x:c r="E5" s="1"/>
@@ -996,13 +996,13 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D6" s="1"/>
       <x:c r="E6" s="1"/>
@@ -1015,10 +1015,10 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C7" s="1"/>
       <x:c r="D7" s="1"/>
@@ -1032,10 +1032,10 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C8" s="1"/>
       <x:c r="D8" s="1"/>
@@ -1052,7 +1052,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C9" s="1"/>
       <x:c r="D9" s="1"/>
@@ -1066,10 +1066,10 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C10" s="1"/>
       <x:c r="D10" s="1"/>
@@ -1083,10 +1083,10 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" s="1"/>
       <x:c r="D11" s="1"/>
@@ -1100,13 +1100,13 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="1"/>
       <x:c r="E12" s="1"/>
@@ -1119,7 +1119,7 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C13" s="1"/>
       <x:c r="D13" s="1"/>
@@ -1133,7 +1133,7 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1"/>
       <x:c r="D14" s="1"/>
@@ -1161,7 +1161,7 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C16" s="1"/>
       <x:c r="D16" s="1"/>
@@ -1175,7 +1175,7 @@
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C17" s="1"/>
       <x:c r="D17" s="1"/>
@@ -1189,7 +1189,7 @@
     </x:row>
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C18" s="1"/>
       <x:c r="D18" s="1"/>
@@ -1213,7 +1213,7 @@
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D4" activeCellId="0" sqref="D4:D4"/>
+      <x:selection activeCell="D2" activeCellId="0" sqref="D2:D2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -1223,79 +1223,79 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
@@ -1305,29 +1305,29 @@
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C11" s="1"/>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="1"/>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
@@ -1337,12 +1337,12 @@
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1367,51 +1367,51 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E2" s="1"/>
       <x:c r="F2" s="1"/>
@@ -1423,22 +1423,22 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G3" s="1"/>
       <x:c r="H3" s="1"/>
@@ -1451,13 +1451,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E4" s="1"/>
       <x:c r="F4" s="1"/>
@@ -1469,19 +1469,19 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F5" s="1"/>
       <x:c r="G5" s="1"/>
@@ -1492,16 +1492,16 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E6" s="1"/>
       <x:c r="F6" s="1"/>
@@ -1513,19 +1513,19 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F7" s="1"/>
       <x:c r="G7" s="1"/>
@@ -1536,16 +1536,16 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E8" s="1"/>
       <x:c r="F8" s="1"/>
@@ -1557,19 +1557,19 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F9" s="1"/>
       <x:c r="G9" s="1"/>
@@ -1583,10 +1583,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D10" s="1"/>
       <x:c r="E10" s="1"/>
@@ -1599,16 +1599,16 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E11" s="1"/>
       <x:c r="F11" s="1"/>
@@ -1620,19 +1620,19 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F12" s="1"/>
       <x:c r="G12" s="1"/>
@@ -1643,19 +1643,19 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F13" s="1"/>
       <x:c r="G13" s="1"/>
@@ -1666,19 +1666,19 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F14" s="1"/>
       <x:c r="G14" s="1"/>
@@ -1689,13 +1689,13 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D15" s="1"/>
       <x:c r="E15" s="1"/>
@@ -1708,19 +1708,19 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F16" s="1"/>
       <x:c r="G16" s="1"/>
@@ -1731,16 +1731,16 @@
     </x:row>
     <x:row r="17" spans="1:11" ht="15.6" customHeight="1">
       <x:c r="A17" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E17" s="1"/>
       <x:c r="F17" s="1"/>
@@ -1752,13 +1752,13 @@
     </x:row>
     <x:row r="18" spans="1:4" ht="15" customHeight="1">
       <x:c r="A18" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D18" s="1"/>
     </x:row>
@@ -1773,59 +1773,59 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:K17"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D18" activeCellId="0" sqref="D18:D18"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D15" activeCellId="0" sqref="D15:D15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="12.6015625" style="2" customWidth="1"/>
-    <x:col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="10.125" style="4" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
@@ -1835,28 +1835,28 @@
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E6" s="1"/>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
@@ -1864,13 +1864,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
         <x:v>21</x:v>
@@ -1878,40 +1878,38 @@
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D15" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D15" s="1"/>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1936,42 +1934,42 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C2" s="1"/>
       <x:c r="D2" s="1"/>
@@ -1988,7 +1986,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C3" s="1"/>
       <x:c r="D3" s="1"/>
@@ -2002,10 +2000,10 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C4" s="1"/>
       <x:c r="D4" s="1"/>
@@ -2019,7 +2017,7 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B5" s="1"/>
       <x:c r="C5" s="1"/>
@@ -2178,7 +2176,7 @@
     </x:row>
     <x:row r="18" spans="1:1" ht="27.100000000000001" customHeight="1">
       <x:c r="A18" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2203,34 +2201,34 @@
   <x:sheetData>
     <x:row r="1" spans="2:11">
       <x:c r="B1" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
